--- a/biology/Botanique/Sphaeropteris_intermedia/Sphaeropteris_intermedia.xlsx
+++ b/biology/Botanique/Sphaeropteris_intermedia/Sphaeropteris_intermedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathea intermedia, aussi appelée Sphaeropteris intermedia, est une espèce de fougères arborescentes endémiques de la Nouvelle-Calédonie.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette fougère arborescente peut mesurer jusqu'à 35 mètres. Elle est probablement la plus grande du monde[2].
-Feuilles
-Les frondes mesurent jusqu'à 4 mètres de long[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fougère arborescente peut mesurer jusqu'à 35 mètres. Elle est probablement la plus grande du monde.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Très commune en lisière des forêts dans le Nord-est de la Grande Terre, on trouve aussi cette espèce en Province Sud, notamment sur le Mont Mou[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frondes mesurent jusqu'à 4 mètres de long.
 </t>
         </is>
       </c>
@@ -573,13 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usages</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le squelette de la fougère, très solide, est utilisé pour fabriquer des pointes de sagaies[2].
-Ses bourgeons sont traditionnellement consommés dans un but contraceptif[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très commune en lisière des forêts dans le Nord-est de la Grande Terre, on trouve aussi cette espèce en Province Sud, notamment sur le Mont Mou.
 </t>
         </is>
       </c>
@@ -605,14 +627,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Appellations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basionyme : Alsophila intermedia Mett., 1861[4]
-Synonyme : Sphaeropteris intermedia (Mett.) R.M.Tryon, 1970[4]
-Cette plante s'appelle kararao en ajië, éti né hnit en drehu, gurubai en drubea, awa en nemi, tokaked en nengone, purawa en paicî et mèrèsäba en xârâcùù[2].
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le squelette de la fougère, très solide, est utilisé pour fabriquer des pointes de sagaies.
+Ses bourgeons sont traditionnellement consommés dans un but contraceptif.
 </t>
         </is>
       </c>
@@ -638,12 +661,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Appellations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basionyme : Alsophila intermedia Mett., 1861
+Synonyme : Sphaeropteris intermedia (Mett.) R.M.Tryon, 1970
+Cette plante s'appelle kararao en ajië, éti né hnit en drehu, gurubai en drubea, awa en nemi, tokaked en nengone, purawa en paicî et mèrèsäba en xârâcùù.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sphaeropteris_intermedia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphaeropteris_intermedia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Mythes et symbolique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour plusieurs clans kanak, cet arbre est associé aux origines ; l'Ancêtre serait sorti de son tronc creux[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour plusieurs clans kanak, cet arbre est associé aux origines ; l'Ancêtre serait sorti de son tronc creux.
 </t>
         </is>
       </c>
